--- a/RassianData.xlsx
+++ b/RassianData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python\china\CN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD65D29B-E68A-4171-B348-0B78601F9155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA549929-D924-4871-96F2-8100687A7DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{9A4329FE-B6B2-44E0-B51F-126991B1489D}"/>
   </bookViews>
@@ -256,7 +256,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -526,7 +526,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -537,46 +537,46 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="6" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="8" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -706,6 +706,9 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="5" xr:uid="{9E513352-9BF9-46A8-898A-BA84A0CBBD06}"/>
@@ -1030,9 +1033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A376E7-726C-49AE-BCDE-60F4D990C6FD}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2391,10 +2392,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F11804-2FFA-406B-8CD5-D180DBA0EB4D}">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I9" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="O23" sqref="O23:S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2402,9 +2406,10 @@
     <col min="1" max="1" width="9.140625" style="52"/>
     <col min="2" max="2" width="41.85546875" style="52" customWidth="1"/>
     <col min="3" max="3" width="61.140625" style="52" customWidth="1"/>
+    <col min="18" max="19" width="9.140625" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="A1" s="52" t="s">
         <v>21</v>
       </c>
@@ -2456,8 +2461,14 @@
       <c r="Q1" s="54">
         <v>2018</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="54">
+        <v>2019</v>
+      </c>
+      <c r="S1" s="54">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="52">
         <v>1</v>
       </c>
@@ -2507,10 +2518,16 @@
         <v>6351407</v>
       </c>
       <c r="Q2">
-        <v>6831923</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>6796935</v>
+      </c>
+      <c r="R2" s="52">
+        <v>7443884</v>
+      </c>
+      <c r="S2" s="52">
+        <v>7849623</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="52">
         <v>2</v>
       </c>
@@ -2556,14 +2573,20 @@
       <c r="O3">
         <v>6471754</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="52">
         <v>6351407</v>
       </c>
-      <c r="Q3">
-        <v>6831923</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="Q3" s="52">
+        <v>6796935</v>
+      </c>
+      <c r="R3" s="52">
+        <v>7443884</v>
+      </c>
+      <c r="S3" s="52">
+        <v>7849623</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="52">
         <v>3</v>
       </c>
@@ -2609,14 +2632,20 @@
       <c r="O4">
         <v>6471754</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="52">
         <v>6351407</v>
       </c>
-      <c r="Q4">
-        <v>6831923</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="Q4" s="52">
+        <v>6796935</v>
+      </c>
+      <c r="R4" s="52">
+        <v>7443884</v>
+      </c>
+      <c r="S4" s="52">
+        <v>7849623</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="52">
         <v>4</v>
       </c>
@@ -2662,14 +2691,20 @@
       <c r="O5">
         <v>6471754</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="52">
         <v>6351407</v>
       </c>
-      <c r="Q5">
-        <v>6831923</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="Q5" s="52">
+        <v>6796935</v>
+      </c>
+      <c r="R5" s="52">
+        <v>7443884</v>
+      </c>
+      <c r="S5" s="52">
+        <v>7849623</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="52">
         <v>5</v>
       </c>
@@ -2719,10 +2754,16 @@
         <v>8202805</v>
       </c>
       <c r="Q6" s="61">
-        <v>10424208</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>10397415</v>
+      </c>
+      <c r="R6" s="63">
+        <v>10253618.614800001</v>
+      </c>
+      <c r="S6" s="63">
+        <v>7416680</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="52">
         <v>6</v>
       </c>
@@ -2772,10 +2813,16 @@
         <v>2742593</v>
       </c>
       <c r="Q7" s="61">
-        <v>3301801</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>3265833</v>
+      </c>
+      <c r="R7" s="63">
+        <v>3280445.6109600002</v>
+      </c>
+      <c r="S7" s="63">
+        <v>3318410</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="52">
         <v>7</v>
       </c>
@@ -2825,10 +2872,16 @@
         <v>1019690</v>
       </c>
       <c r="Q8" s="61">
-        <v>1164672</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>1160523</v>
+      </c>
+      <c r="R8" s="63">
+        <v>1218552.86576</v>
+      </c>
+      <c r="S8" s="63">
+        <v>1274183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="52">
         <v>8</v>
       </c>
@@ -2878,10 +2931,16 @@
         <v>76528</v>
       </c>
       <c r="Q9" s="61">
-        <v>81864</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>80118</v>
+      </c>
+      <c r="R9" s="63">
+        <v>76315.981920000006</v>
+      </c>
+      <c r="S9" s="63">
+        <v>61998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="52">
         <v>9</v>
       </c>
@@ -2931,10 +2990,16 @@
         <v>548647</v>
       </c>
       <c r="Q10" s="61">
-        <v>675384</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="26.25">
+        <v>673289</v>
+      </c>
+      <c r="R10" s="63">
+        <v>714280.44125999999</v>
+      </c>
+      <c r="S10" s="63">
+        <v>717475</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="26.25">
       <c r="A11" s="52">
         <v>10</v>
       </c>
@@ -2978,16 +3043,22 @@
         <v>1094925</v>
       </c>
       <c r="O11">
-        <v>988419</v>
+        <v>966735</v>
       </c>
       <c r="P11">
-        <v>1044751</v>
+        <v>1024040</v>
       </c>
       <c r="Q11">
-        <v>1202892</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1185143</v>
+      </c>
+      <c r="R11" s="52">
+        <v>1214749.0667300001</v>
+      </c>
+      <c r="S11" s="52">
+        <v>1187387</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="52">
         <v>11</v>
       </c>
@@ -3037,10 +3108,16 @@
         <v>375335</v>
       </c>
       <c r="Q12">
-        <v>425452</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>423182</v>
+      </c>
+      <c r="R12" s="52">
+        <v>436122.22356000001</v>
+      </c>
+      <c r="S12" s="52">
+        <v>457107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="52">
         <v>12</v>
       </c>
@@ -3090,10 +3167,16 @@
         <v>76528</v>
       </c>
       <c r="Q13" s="61">
-        <v>81864</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>80118</v>
+      </c>
+      <c r="R13" s="63">
+        <v>76315.981920000006</v>
+      </c>
+      <c r="S13" s="63">
+        <v>61998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="52">
         <v>13</v>
       </c>
@@ -3143,10 +3226,16 @@
         <v>1443785</v>
       </c>
       <c r="Q14" s="61">
-        <v>1612069</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>1602972</v>
+      </c>
+      <c r="R14" s="63">
+        <v>1752046.4058999999</v>
+      </c>
+      <c r="S14" s="63">
+        <v>1676145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="52">
         <v>14</v>
       </c>
@@ -3196,10 +3285,16 @@
         <v>2296135</v>
       </c>
       <c r="Q15" s="61">
-        <v>2453341</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="26.25">
+        <v>2449547</v>
+      </c>
+      <c r="R15" s="63">
+        <v>2713220.5829400001</v>
+      </c>
+      <c r="S15" s="63">
+        <v>2759700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="26.25">
       <c r="A16" s="52">
         <v>15</v>
       </c>
@@ -3249,10 +3344,16 @@
         <v>5165508</v>
       </c>
       <c r="Q16" s="61">
-        <v>6108666</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>6099609</v>
+      </c>
+      <c r="R16" s="63">
+        <v>7087416.2594999997</v>
+      </c>
+      <c r="S16" s="63">
+        <v>7589705</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="52">
         <v>16</v>
       </c>
@@ -3302,10 +3403,16 @@
         <v>2126154</v>
       </c>
       <c r="Q17" s="61">
-        <v>2552557</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>2549635</v>
+      </c>
+      <c r="R17" s="63">
+        <v>2710317.6334699998</v>
+      </c>
+      <c r="S17" s="63">
+        <v>2502242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="52">
         <v>17</v>
       </c>
@@ -3355,10 +3462,16 @@
         <v>4153271</v>
       </c>
       <c r="Q18" s="61">
-        <v>4720224</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="26.25">
+        <v>4712776</v>
+      </c>
+      <c r="R18" s="61">
+        <v>4987436.9313700004</v>
+      </c>
+      <c r="S18" s="61">
+        <v>4495207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="26.25">
       <c r="A19" s="52">
         <v>18</v>
       </c>
@@ -3408,10 +3521,16 @@
         <v>2222107</v>
       </c>
       <c r="Q19">
-        <v>2366048</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>2358647</v>
+      </c>
+      <c r="R19" s="52">
+        <v>2560783.0364999999</v>
+      </c>
+      <c r="S19" s="52">
+        <v>2386883</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="52">
         <v>19</v>
       </c>
@@ -3461,10 +3580,16 @@
         <v>2296135</v>
       </c>
       <c r="Q20" s="61">
-        <v>2453341</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>2449547</v>
+      </c>
+      <c r="R20" s="63">
+        <v>2713220.5829400001</v>
+      </c>
+      <c r="S20" s="63">
+        <v>2759700</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="52">
         <v>20</v>
       </c>
@@ -3514,10 +3639,16 @@
         <v>2296135</v>
       </c>
       <c r="Q21" s="61">
-        <v>2453341</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>2449547</v>
+      </c>
+      <c r="R21" s="63">
+        <v>2713220.5829400001</v>
+      </c>
+      <c r="S21" s="63">
+        <v>2759700</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="52">
         <v>21</v>
       </c>
@@ -3567,10 +3698,16 @@
         <v>2296135</v>
       </c>
       <c r="Q22" s="61">
-        <v>2453341</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>2449547</v>
+      </c>
+      <c r="R22" s="63">
+        <v>2713220.5829400001</v>
+      </c>
+      <c r="S22" s="63">
+        <v>2759700</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="52">
         <v>22</v>
       </c>
@@ -3620,7 +3757,13 @@
         <v>2296135</v>
       </c>
       <c r="Q23" s="61">
-        <v>2453341</v>
+        <v>2449547</v>
+      </c>
+      <c r="R23" s="63">
+        <v>2713220.5829400001</v>
+      </c>
+      <c r="S23" s="63">
+        <v>2759700</v>
       </c>
     </row>
   </sheetData>
